--- a/buckling/misc/Results Sept 3 2025.xlsx
+++ b/buckling/misc/Results Sept 3 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbonnell\Desktop\lase\projects\ultimate-strength\eigen-buckling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbonnell\Desktop\lase\projects\ultimate-strength\buckling\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C148F7D-E687-4D97-B4D9-A110CE9F76BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3E3796-548D-44FE-922B-A58A74DE9966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>U1</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Sam, One side loaded, eqs for U1 at transverse plate edges</t>
+  </si>
+  <si>
+    <t>Complete Parametric</t>
   </si>
 </sst>
 </file>
@@ -1017,1101 +1020,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Plate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AG$3:$AG$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0095999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4630099999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0148100000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5503800000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9794000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.2796100000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.05327E-4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.19771E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1.4129400000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1.80638E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>2.6012399999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>4.2591999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.7570899999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1.52918E-3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>3.1730600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>5.3974899999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>8.1933300000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>1.3487300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>2.0093E-2</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>2.0206999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>2.0321700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>2.0495099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>2.07578E-2</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>2.1159000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>2.1320700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>2.1333899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>2.1329899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>2.1279800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>2.11953E-2</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>2.10674E-2</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>2.0877300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>2.05953E-2</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>2.0179099999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>1.9569599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>1.8676399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>1.86301E-2</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>1.8560799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>1.8457299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>1.83035E-2</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>1.8062100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>1.7839000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>1.7621700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>1.7403499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>1.7077800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>1.65959E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>1.5935999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>1.4922100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>1.34796E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>1.26575E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>1.16548E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AF$3:$AF$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>136000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>212000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>257000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>293000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>358000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>477000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>686000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1030000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2220000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2870000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3930000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5060000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5080000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5090000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5120000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5160000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5220000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5240000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5240000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5240000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5240000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5230000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5210000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5180000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5140000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5070000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4980000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4830000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4820000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4810000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4790000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4770000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4730000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4690000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4650000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4610000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4560000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4470000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4360000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4179999.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3910000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3750000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3540000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD6F-4120-962F-D2586F64B6CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Web1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AJ$3:$AJ$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.48129E-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9625799999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1844800000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5173000000000004E-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3516400000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1014900000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2262099999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.9131800000000003E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4433699999999998E-7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.12381E-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6928900000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.54622E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.82556E-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.7431000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.61607E-6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2918000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9353700000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8968100000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.3299600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.4587500000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.6026299999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1.4200199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>2.0806700000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>2.9996299999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>4.2021199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>5.6168699999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>7.0571100000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>8.3573000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>9.5212300000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>1.0742900000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>1.2430500000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>1.5276300000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>1.9914099999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>2.5619800000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>3.0145800000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>3.4681299999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>3.9694500000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>4.8385199999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>5.8416900000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>6.9806800000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>8.2623200000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>9.6928199999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>1.12751E-2</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>1.22316E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>1.2241200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>1.22556E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>1.2276799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>1.2260699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>1.22433E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>1.22168E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AI$3:$AI$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>2460</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>3690</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>5540</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>8310</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>18700</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>27900</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>41800</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>62300</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>92600</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>137000</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>201000</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>289000</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>405000</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>541000</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>678000</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>903000</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>1310000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>1590000</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>1890000</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>2080000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>2420000</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>2690000</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>2960000</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>3250000</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>3540000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>3850000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>4179999.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>4360000</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>4360000</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>4370000</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>4370000</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>4370000</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>4360000</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>4360000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3488-4D1E-B158-4E8204980AD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Web4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.96039E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9207500000000002E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8612599999999996E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1271899999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7887699999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7810900000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2694500000000003E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.50175E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.8496300000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.48702E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2398100000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3683499999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0596400000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5931099999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1.1385199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.70538E-4</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>2.5509000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>3.8069200000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>5.6574200000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>8.3334800000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1.2024E-3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1.65197E-3</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>2.0837299999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>2.42238E-3</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>2.6801300000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>2.8988199999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>3.1332399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>3.4663200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>4.0449600000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>5.14212E-3</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>5.4603100000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>5.7976599999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>6.3374900000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>7.2435800000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>8.85559E-3</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>1.17778E-2</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>1.5282799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>1.9355399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>2.6518099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>3.9507199999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>5.4922899999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>5.9179700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>6.3578700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>7.0434899999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>8.1266699999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>8.1440799999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>8.1614999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>8.1876599999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>8.2269599999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>8.2860299999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AL$3:$AL$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4730</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>129000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>194000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>290000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>434000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>647000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>962000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1420000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2810000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3540000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4099999.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4520000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4840000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5440000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5850000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6420000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6540000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6660000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6830000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7070000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7380000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7860000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8359999.9999999991</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8900000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9730000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12200000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12400000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12700000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13100000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13600000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80AB-409F-986F-9BBE48DF8CCF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
@@ -2478,6 +1386,373 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Parametric</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AS$3:$AS$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7693400000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.3494399999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.3496699999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.8301399999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.0263099999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>9.4598700000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.47353E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.4072199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.8452299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.0134100000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>9.3079400000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.2618600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.5913199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.9187099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.2442199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.72325E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.1779000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.6075099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.0372100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.2912600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.6917399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>5.1117299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>5.5335099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>5.9532000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>6.3679299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>6.77508E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>7.1720599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>7.5595200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>7.9392400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>8.4911600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>9.2775999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>9.9914100000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.106173</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.111276</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.11191</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.112043</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.112126</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.112169</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.11218500000000001</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.11216</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.11211699999999999</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.112009</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.11189300000000001</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.11182400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.111846</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.11187800000000001</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.111938</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.112028</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.112153</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.112513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$3:$AR$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>564000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>873000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1860000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2180000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2590000</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3040000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3370000</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3590000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3730000</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3820000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3820000</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3700000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3550000</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3360000</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>3340000</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>3390000</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>3520000</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>3690000</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>3890000</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>4110000.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>4340000</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>4570000</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>5150000</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>5680000</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>6180000</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>6620000</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>6980000</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>7020000</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>7020000</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>6970000</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>6890000</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>6770000</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>6630000</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>5580000</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>5190000</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>4860000</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>4580000</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>4340000</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>4139999.9999999995</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>3880000</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>3570000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-481F-4909-B9F9-36CA87EDF383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2701,6 +1976,1143 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-22DB-406C-A808-95113D62EEC8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Plate</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AG$3:$AG$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0095999999999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4630099999999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0148100000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.5503800000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.9794000000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.2796100000000004E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>1.05327E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>1.19771E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>1.4129400000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>1.80638E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>2.6012399999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>4.2591999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.7570899999999997E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>1.52918E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>3.1730600000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>5.3974899999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>8.1933300000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>1.3487300000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>2.0093E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>2.0206999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>2.0321700000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>2.0495099999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>2.07578E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>2.1159000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>2.1320700000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>2.1333899999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>2.1329899999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>2.1279800000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>2.11953E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>2.10674E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>2.0877300000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>2.05953E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>2.0179099999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>1.9569599999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>1.8676399999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>1.86301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>1.8560799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>1.8457299999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>1.83035E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>1.8062100000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>1.7839000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="General">
+                        <c:v>1.7621700000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43" formatCode="General">
+                        <c:v>1.7403499999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44" formatCode="General">
+                        <c:v>1.7077800000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45" formatCode="General">
+                        <c:v>1.65959E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46" formatCode="General">
+                        <c:v>1.5935999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47" formatCode="General">
+                        <c:v>1.4922100000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48" formatCode="General">
+                        <c:v>1.34796E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49" formatCode="General">
+                        <c:v>1.26575E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50" formatCode="General">
+                        <c:v>1.16548E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AF$3:$AF$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>72400</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>105000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>136000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>165000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>190000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>212000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>233000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>257000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>293000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>358000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>477000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>686000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1030000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1600000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2220000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2870000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3930000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5060000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5080000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5090000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5120000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5160000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5220000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5240000</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5240000</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5240000</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5240000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5230000</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5210000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5180000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5140000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5070000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4980000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4830000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4820000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4810000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4790000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4770000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4730000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4690000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4650000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4610000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4560000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4470000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4360000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4179999.9999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3910000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3750000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>3540000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-DD6F-4120-962F-D2586F64B6CA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>Web1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AJ$3:$AJ$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.48129E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9625799999999999E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.1844800000000001E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.5173000000000004E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.3516400000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.1014900000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.2262099999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.9131800000000003E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.4433699999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.12381E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.6928900000000001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.54622E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.82556E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.7431000000000001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.61607E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.2918000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.9353700000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.8968100000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4.3299600000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6.4587500000000005E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9.6026299999999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>1.4200199999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>2.0806700000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>2.9996299999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>4.2021199999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>5.6168699999999995E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>7.0571100000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>8.3573000000000002E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>9.5212300000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>1.0742900000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>1.2430500000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>1.5276300000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>1.9914099999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>2.5619800000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>3.0145800000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>3.4681299999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>3.9694500000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>4.8385199999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>5.8416900000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>6.9806800000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>8.2623200000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="General">
+                        <c:v>9.6928199999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="43" formatCode="General">
+                        <c:v>1.12751E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44" formatCode="General">
+                        <c:v>1.22316E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45" formatCode="General">
+                        <c:v>1.2241200000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46" formatCode="General">
+                        <c:v>1.22556E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47" formatCode="General">
+                        <c:v>1.2276799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48" formatCode="General">
+                        <c:v>1.2260699999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49" formatCode="General">
+                        <c:v>1.22433E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50" formatCode="General">
+                        <c:v>1.22168E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AI$3:$AI$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>28.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>82.100000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>311</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>474</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>718</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>1080</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>1630</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>2460</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>3690</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>5540</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>8310</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>12500</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>18700</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>27900</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>41800</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>62300</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>92600</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>137000</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>201000</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>289000</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>405000</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>541000</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>678000</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>903000</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>1120000</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>1310000</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>1590000</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>1890000</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>2080000</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>2250000</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>2420000</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>2690000</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>2960000</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>3250000</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>3540000</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="General">
+                        <c:v>3850000</c:v>
+                      </c:pt>
+                      <c:pt idx="43" formatCode="General">
+                        <c:v>4179999.9999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="44" formatCode="General">
+                        <c:v>4360000</c:v>
+                      </c:pt>
+                      <c:pt idx="45" formatCode="General">
+                        <c:v>4360000</c:v>
+                      </c:pt>
+                      <c:pt idx="46" formatCode="General">
+                        <c:v>4370000</c:v>
+                      </c:pt>
+                      <c:pt idx="47" formatCode="General">
+                        <c:v>4370000</c:v>
+                      </c:pt>
+                      <c:pt idx="48" formatCode="General">
+                        <c:v>4370000</c:v>
+                      </c:pt>
+                      <c:pt idx="49" formatCode="General">
+                        <c:v>4360000</c:v>
+                      </c:pt>
+                      <c:pt idx="50" formatCode="General">
+                        <c:v>4360000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3488-4D1E-B158-4E8204980AD9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>Web4</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AM$3:$AM$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.96039E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.9207500000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.8612599999999996E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1271899999999999E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.7887699999999999E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.7810900000000001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.2694500000000003E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.50175E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.8496300000000001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.48702E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2398100000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.3683499999999997E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5.0596400000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7.5931099999999995E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>1.1385199999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>1.70538E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>2.5509000000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>3.8069200000000002E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>5.6574200000000005E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>8.3334800000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>1.2024E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>1.65197E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>2.0837299999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>2.42238E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>2.6801300000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>2.8988199999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>3.1332399999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>3.4663200000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>4.0449600000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>5.14212E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>5.4603100000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>5.7976599999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>6.3374900000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>7.2435800000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>8.85559E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>1.17778E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>1.5282799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>1.9355399999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>2.6518099999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>3.9507199999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>5.4922899999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="General">
+                        <c:v>5.9179700000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43" formatCode="General">
+                        <c:v>6.3578700000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44" formatCode="General">
+                        <c:v>7.0434899999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45" formatCode="General">
+                        <c:v>8.1266699999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46" formatCode="General">
+                        <c:v>8.1440799999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47" formatCode="General">
+                        <c:v>8.1614999999999993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48" formatCode="General">
+                        <c:v>8.1876599999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49" formatCode="General">
+                        <c:v>8.2269599999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50" formatCode="General">
+                        <c:v>8.2860299999999998E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AL$3:$AL$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>333</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>667</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1170</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1920</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3040</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4730</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7260</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16700</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>25300</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>38100</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>57300</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>86000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>129000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>194000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>290000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>434000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>647000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>962000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1420000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2040000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2810000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3540000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4099999.9999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4520000</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4840000</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5120000</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5440000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5850000</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6420000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>6540000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>6660000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>6830000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>7070000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7380000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7860000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>8359999.9999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>8900000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>9730000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>11000000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>12200000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>12400000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>12700000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>13100000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>13600000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-80AB-409F-986F-9BBE48DF8CCF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2974,7 +3386,7 @@
           <c:x val="0.10259861510516929"/>
           <c:y val="6.399048988286625E-2"/>
           <c:w val="0.31372757095369097"/>
-          <c:h val="0.41962152876893577"/>
+          <c:h val="0.31471614657670183"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3907,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,10 +4341,12 @@
     <col min="35" max="35" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="38" width="9" style="1"/>
     <col min="39" max="39" width="9" style="9"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="40" max="45" width="9" style="1"/>
+    <col min="46" max="46" width="9" style="9"/>
+    <col min="47" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
@@ -3967,8 +4381,13 @@
         <v>15</v>
       </c>
       <c r="AP1" s="13"/>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="11"/>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -4018,8 +4437,14 @@
       <c r="AP2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4084,8 +4509,15 @@
       <c r="AP3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AR3" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -4153,8 +4585,15 @@
       <c r="AP4" s="12">
         <v>1.94168E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11">
+        <v>99700</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>6.7693400000000005E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.34529582929194902</v>
       </c>
@@ -4222,8 +4661,15 @@
       <c r="AP5" s="12">
         <v>3.8833599999999999E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11">
+        <v>199000</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1.3494399999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.81862269641125096</v>
       </c>
@@ -4291,8 +4737,15 @@
       <c r="AP6" s="12">
         <v>6.7958800000000001E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11">
+        <v>346000</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>2.3496699999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.48593598448108</v>
       </c>
@@ -4360,8 +4813,15 @@
       <c r="AP7" s="12">
         <v>1.11646E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11">
+        <v>564000</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>3.8301399999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2.3278370514064002</v>
       </c>
@@ -4429,8 +4889,15 @@
       <c r="AP8" s="12">
         <v>1.77178E-6</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11">
+        <v>873000</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>6.0263099999999996E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3.1852570320077498</v>
       </c>
@@ -4498,8 +4965,15 @@
       <c r="AP9" s="12">
         <v>2.7547500000000002E-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="9">
+        <v>1210000</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>9.4598700000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3.8836081474296802</v>
       </c>
@@ -4567,8 +5041,15 @@
       <c r="AP10" s="12">
         <v>4.2291900000000002E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1.47353E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4.5780795344325798</v>
       </c>
@@ -4636,8 +5117,15 @@
       <c r="AP11" s="12">
         <v>6.4408500000000003E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="9">
+        <v>1860000</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>2.4072199999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.5945683802133797</v>
       </c>
@@ -4705,8 +5193,15 @@
       <c r="AP12" s="12">
         <v>9.7582999999999994E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="9">
+        <v>2180000</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>3.8452299999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.6925315227934004</v>
       </c>
@@ -4774,8 +5269,15 @@
       <c r="AP13" s="12">
         <v>1.4734400000000001E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="9">
+        <v>2590000</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>6.0134100000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7.9806013579049404</v>
       </c>
@@ -4843,8 +5345,15 @@
       <c r="AP14" s="12">
         <v>2.2198400000000001E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="9">
+        <v>3040000</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>9.3079400000000007E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>7420000</v>
       </c>
@@ -4898,8 +5407,15 @@
       <c r="AP15" s="12">
         <v>3.3394099999999999E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="9">
+        <v>3370000</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>1.2618600000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>8410000</v>
       </c>
@@ -4953,8 +5469,15 @@
       <c r="AP16" s="12">
         <v>5.0186699999999998E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="9">
+        <v>3590000</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>1.5913199999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="F17" s="1">
@@ -5010,8 +5533,15 @@
       <c r="AP17" s="12">
         <v>7.53738E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="9">
+        <v>3730000</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>1.9187099999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="F18" s="1">
@@ -5067,8 +5597,15 @@
       <c r="AP18" s="1">
         <v>1.1315E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="9">
+        <v>3820000</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>2.2442199999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -5125,8 +5662,15 @@
       <c r="AP19" s="1">
         <v>1.69805E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="9">
+        <v>3820000</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>2.72325E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -5183,8 +5727,15 @@
       <c r="AP20" s="1">
         <v>2.5476399999999999E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="9">
+        <v>3700000</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>3.1779000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -5241,8 +5792,15 @@
       <c r="AP21" s="1">
         <v>3.8214500000000002E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="9">
+        <v>3550000</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>3.6075099999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -5299,8 +5857,15 @@
       <c r="AP22" s="1">
         <v>5.7307899999999999E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="9">
+        <v>3400000</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>4.0372100000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -5357,8 +5922,15 @@
       <c r="AP23" s="1">
         <v>8.5911099999999997E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="9">
+        <v>3360000</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>4.2912600000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -5411,8 +5983,15 @@
       <c r="AP24" s="1">
         <v>1.2871E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="9">
+        <v>3340000</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>4.6917399999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -5459,8 +6038,15 @@
       <c r="AP25" s="1">
         <v>1.9255299999999999E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="9">
+        <v>3390000</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>5.1117299999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -5499,8 +6085,15 @@
       <c r="AP26" s="1">
         <v>2.8675699999999998E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="9">
+        <v>3520000</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>5.5335099999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
@@ -5539,8 +6132,15 @@
       <c r="AP27" s="1">
         <v>4.1837100000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="9">
+        <v>3690000</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>5.9532000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
@@ -5579,8 +6179,15 @@
       <c r="AP28" s="1">
         <v>5.0255600000000001E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="9">
+        <v>3890000</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>6.3679299999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -5619,8 +6226,15 @@
       <c r="AP29" s="1">
         <v>5.2528799999999997E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="9">
+        <v>4110000.0000000005</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>6.77508E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -5659,8 +6273,15 @@
       <c r="AP30" s="1">
         <v>5.4262299999999998E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="9">
+        <v>4340000</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>7.1720599999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -5699,8 +6320,15 @@
       <c r="AP31" s="1">
         <v>5.6490000000000004E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="9">
+        <v>4570000</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>7.5595200000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
@@ -5739,8 +6367,15 @@
       <c r="AP32" s="1">
         <v>5.9571199999999998E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="9">
+        <v>4800000</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>7.9392400000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -5779,8 +6414,15 @@
       <c r="AP33" s="1">
         <v>6.4234699999999997E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="9">
+        <v>5150000</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>8.4911600000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
@@ -5819,8 +6461,15 @@
       <c r="AP34" s="1">
         <v>7.1950800000000004E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="9">
+        <v>5680000</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>9.2775999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
@@ -5859,8 +6508,15 @@
       <c r="AP35" s="1">
         <v>8.5681799999999999E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="9">
+        <v>6180000</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>9.9914100000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F36" s="1">
         <v>11400000</v>
       </c>
@@ -5896,8 +6552,15 @@
       <c r="AP36" s="1">
         <v>1.1142000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="9">
+        <v>6620000</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0.106173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F37" s="1">
         <v>11400000</v>
       </c>
@@ -5933,8 +6596,15 @@
       <c r="AP37" s="1">
         <v>1.6225199999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="9">
+        <v>6980000</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0.111276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F38" s="1">
         <v>11400000</v>
       </c>
@@ -5970,8 +6640,15 @@
       <c r="AP38" s="1">
         <v>2.2898700000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="9">
+        <v>7020000</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0.11191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>11400000</v>
       </c>
@@ -6007,8 +6684,15 @@
       <c r="AP39" s="1">
         <v>3.11489E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="9">
+        <v>7020000</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0.112043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF40" s="9">
         <v>4810000</v>
       </c>
@@ -6034,8 +6718,15 @@
       <c r="AP40" s="1">
         <v>4.0879199999999997E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="9">
+        <v>6970000</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0.112126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF41" s="9">
         <v>4790000</v>
       </c>
@@ -6061,8 +6752,15 @@
       <c r="AP41" s="1">
         <v>5.1965400000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="9">
+        <v>6890000</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>0.112169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF42" s="9">
         <v>4770000</v>
       </c>
@@ -6088,8 +6786,15 @@
       <c r="AP42" s="1">
         <v>6.3702300000000003E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="9">
+        <v>6770000</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0.11218500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF43" s="9">
         <v>4730000</v>
       </c>
@@ -6115,8 +6820,15 @@
       <c r="AP43" s="1">
         <v>7.7530299999999996E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="9">
+        <v>6630000</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0.11216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF44" s="9">
         <v>4690000</v>
       </c>
@@ -6142,8 +6854,15 @@
       <c r="AP44" s="1">
         <v>9.2502200000000007E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="9">
+        <v>6400000</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0.11211699999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF45" s="9">
         <v>4650000</v>
       </c>
@@ -6169,8 +6888,15 @@
       <c r="AP45" s="1">
         <v>0.108428</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0.112009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF46" s="9">
         <v>4610000</v>
       </c>
@@ -6196,8 +6922,15 @@
       <c r="AP46" s="1">
         <v>0.112509</v>
       </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="9">
+        <v>5580000</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>0.11189300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF47" s="9">
         <v>4560000</v>
       </c>
@@ -6223,8 +6956,15 @@
       <c r="AP47" s="1">
         <v>0.116621</v>
       </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="9">
+        <v>5190000</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>0.11182400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AF48" s="9">
         <v>4470000</v>
       </c>
@@ -6250,8 +6990,15 @@
       <c r="AP48" s="1">
         <v>0.11894100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="32:42" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="9">
+        <v>4860000</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0.111846</v>
+      </c>
+    </row>
+    <row r="49" spans="32:45" x14ac:dyDescent="0.25">
       <c r="AF49" s="9">
         <v>4360000</v>
       </c>
@@ -6277,8 +7024,15 @@
       <c r="AP49" s="1">
         <v>0.120245</v>
       </c>
-    </row>
-    <row r="50" spans="32:42" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="9">
+        <v>4580000</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0.11187800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="32:45" x14ac:dyDescent="0.25">
       <c r="AF50" s="9">
         <v>4179999.9999999995</v>
       </c>
@@ -6304,8 +7058,15 @@
       <c r="AP50" s="1">
         <v>0.120313</v>
       </c>
-    </row>
-    <row r="51" spans="32:42" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="9">
+        <v>4340000</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>0.111938</v>
+      </c>
+    </row>
+    <row r="51" spans="32:45" x14ac:dyDescent="0.25">
       <c r="AF51" s="9">
         <v>3910000</v>
       </c>
@@ -6331,8 +7092,15 @@
       <c r="AP51" s="1">
         <v>0.12041499999999999</v>
       </c>
-    </row>
-    <row r="52" spans="32:42" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="9">
+        <v>4139999.9999999995</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>0.112028</v>
+      </c>
+    </row>
+    <row r="52" spans="32:45" x14ac:dyDescent="0.25">
       <c r="AF52" s="9">
         <v>3750000</v>
       </c>
@@ -6358,8 +7126,15 @@
       <c r="AP52" s="1">
         <v>0.120569</v>
       </c>
-    </row>
-    <row r="53" spans="32:42" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="9">
+        <v>3880000</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>0.112153</v>
+      </c>
+    </row>
+    <row r="53" spans="32:45" x14ac:dyDescent="0.25">
       <c r="AF53" s="9">
         <v>3540000</v>
       </c>
@@ -6385,19 +7160,33 @@
       <c r="AP53" s="1">
         <v>0.120796</v>
       </c>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="9">
+        <v>3570000</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>0.112513</v>
+      </c>
+    </row>
+    <row r="54" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AR54" s="11"/>
+    </row>
+    <row r="55" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AR55" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6407,1461 +7196,1465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18365E5-FDA9-4029-B8E0-AF4B8B75F728}">
-  <dimension ref="B1:J50"/>
+  <dimension ref="C1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H1:H50"/>
+      <selection activeCell="I51" sqref="I2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="11">
-        <v>3.3300000000000002E-4</v>
-      </c>
-      <c r="I1" s="11">
-        <v>3.3330000000000002E-4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="11">
-        <v>6.6699999999999995E-4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="11">
-        <v>3.3330000000000002E-4</v>
-      </c>
-      <c r="J2" t="s">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="J2">
+        <v>9.9669999999999995E-2</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" s="11">
-        <v>1.17E-3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="11">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J3" t="s">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J3">
+        <v>9.9010000000000001E-2</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" s="11">
-        <v>1.92E-3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="11">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="J4" t="s">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.1472</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>3.0400000000000002E-3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="11">
-        <v>1.1249999999999999E-3</v>
-      </c>
-      <c r="J5" t="s">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.873</v>
+      </c>
+      <c r="J6">
+        <v>0.309</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1.21</v>
+      </c>
+      <c r="J7">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1.6</v>
+      </c>
+      <c r="J8">
+        <v>0.3831</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1.86</v>
+      </c>
+      <c r="J9">
+        <v>0.26619999999999999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.3221</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2.59</v>
+      </c>
+      <c r="J11">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>3.04</v>
+      </c>
+      <c r="J12">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3.37</v>
+      </c>
+      <c r="J13">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3.59</v>
+      </c>
+      <c r="J14">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3.73</v>
+      </c>
+      <c r="J15">
+        <v>0.1487</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>3.82</v>
+      </c>
+      <c r="J16">
+        <v>8.5879999999999998E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3.82</v>
+      </c>
+      <c r="J17">
+        <v>-3.0409999999999999E-3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3.7</v>
+      </c>
+      <c r="J18">
+        <v>-0.1118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3.55</v>
+      </c>
+      <c r="J19">
+        <v>-0.1585</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>3.4</v>
+      </c>
+      <c r="J20">
+        <v>-0.14349999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>4.7299999999999998E-3</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1.6869999999999999E-3</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>3.36</v>
+      </c>
+      <c r="J21">
+        <v>-4.5379999999999997E-2</v>
+      </c>
+      <c r="K21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>7.26E-3</v>
-      </c>
-      <c r="I7">
-        <v>2.5309999999999998E-3</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>3.34</v>
+      </c>
+      <c r="J22">
+        <v>-1.8890000000000001E-2</v>
+      </c>
+      <c r="K22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1.11E-2</v>
-      </c>
-      <c r="I8">
-        <v>3.797E-3</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>3.39</v>
+      </c>
+      <c r="J23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="I9">
-        <v>5.6950000000000004E-3</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3.52</v>
+      </c>
+      <c r="J24">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="K24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2.53E-2</v>
-      </c>
-      <c r="I10">
-        <v>8.5430000000000002E-3</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>3.69</v>
+      </c>
+      <c r="J25">
+        <v>0.1726</v>
+      </c>
+      <c r="K25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.281E-2</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3.89</v>
+      </c>
+      <c r="J26">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="K26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.9220000000000001E-2</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="K27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>4.34</v>
+      </c>
+      <c r="J28">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K28" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="I13">
-        <v>2.8830000000000001E-2</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>4.57</v>
+      </c>
+      <c r="J29">
+        <v>0.2321</v>
+      </c>
+      <c r="K29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0.129</v>
-      </c>
-      <c r="I14">
-        <v>4.3240000000000001E-2</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4.8</v>
+      </c>
+      <c r="J30">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="K30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="I15">
-        <v>6.4850000000000005E-2</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5.15</v>
+      </c>
+      <c r="J31">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="K31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I16">
-        <v>9.7250000000000003E-2</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5.68</v>
+      </c>
+      <c r="J32">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="K32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0.437</v>
-      </c>
-      <c r="I17">
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>6.18</v>
+      </c>
+      <c r="J33">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="K33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="I18">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>6.62</v>
+      </c>
+      <c r="J34">
+        <v>0.4461</v>
+      </c>
+      <c r="K34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1.47</v>
-      </c>
-      <c r="I20">
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>2.21</v>
-      </c>
-      <c r="I21">
-        <v>0.73419999999999996</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3.3</v>
-      </c>
-      <c r="I22">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>4.91</v>
-      </c>
-      <c r="I23">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>7.13</v>
-      </c>
-      <c r="I24">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>8.4</v>
-      </c>
-      <c r="I25">
-        <v>1.268</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>8.67</v>
-      </c>
-      <c r="I26">
-        <v>0.2722</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>8.85</v>
-      </c>
-      <c r="I27">
-        <v>0.1794</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="I28">
-        <v>0.1973</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I29">
-        <v>0.22459999999999999</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="I30">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>9.9</v>
-      </c>
-      <c r="I31">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>10.4</v>
-      </c>
-      <c r="I32">
-        <v>0.47220000000000001</v>
-      </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>0.62280000000000002</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>34</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <v>11.8</v>
-      </c>
-      <c r="I34">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35">
-        <v>12.6</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0.80969999999999998</v>
-      </c>
-      <c r="J35" t="s">
+        <v>6.98</v>
+      </c>
+      <c r="J35">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="K35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1</v>
-      </c>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>7.02</v>
+      </c>
+      <c r="J36">
+        <v>3.848E-2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>36</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
-        <v>13.4</v>
-      </c>
-      <c r="I36">
-        <v>0.83240000000000003</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>7.02</v>
+      </c>
+      <c r="J37">
+        <v>-4.7159999999999997E-3</v>
+      </c>
+      <c r="K37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>37</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>0</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>14.3</v>
-      </c>
-      <c r="I37">
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>38</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>0.77</v>
-      </c>
-      <c r="J38" t="s">
+        <v>6.97</v>
+      </c>
+      <c r="J38">
+        <v>-4.4540000000000003E-2</v>
+      </c>
+      <c r="K38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1</v>
-      </c>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>6.89</v>
+      </c>
+      <c r="J39">
+        <v>-8.5489999999999997E-2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>39</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-      <c r="H39">
-        <v>15.6</v>
-      </c>
-      <c r="I39">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>6.77</v>
+      </c>
+      <c r="J40">
+        <v>-0.11269999999999999</v>
+      </c>
+      <c r="K40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>40</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>6.63</v>
+      </c>
+      <c r="J41">
+        <v>-0.14349999999999999</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>6.4</v>
+      </c>
+      <c r="J42">
+        <v>-0.23119999999999999</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>-0.39710000000000001</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>5.58</v>
+      </c>
+      <c r="J44">
+        <v>-0.42420000000000002</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>5.19</v>
+      </c>
+      <c r="J45">
+        <v>-0.38969999999999999</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G40">
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="H40">
-        <v>16.2</v>
-      </c>
-      <c r="I40">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I46">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J46">
+        <v>-0.3251</v>
+      </c>
+      <c r="K46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>41</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41">
-        <v>16.5</v>
-      </c>
-      <c r="I41">
-        <v>0.38440000000000002</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>4.58</v>
+      </c>
+      <c r="J47">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="K47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>42</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I42">
-        <v>7.7619999999999995E-2</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4.34</v>
+      </c>
+      <c r="J48">
+        <v>-0.23930000000000001</v>
+      </c>
+      <c r="K48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>43</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I43">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J49">
+        <v>-0.20380000000000001</v>
+      </c>
+      <c r="K49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>0</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>16.5</v>
-      </c>
-      <c r="I44">
-        <v>-7.6910000000000006E-2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>45</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I45">
-        <v>-5.8389999999999997E-2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>46</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I46">
-        <v>-3.8039999999999997E-2</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>47</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I47">
-        <v>-2.1120000000000002E-3</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I48">
-        <v>-3.1879999999999999E-3</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>49</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I49">
-        <v>-4.8260000000000004E-3</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>50</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="H50">
-        <v>16.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>-7.3299999999999997E-3</v>
-      </c>
-      <c r="J50" t="s">
+        <v>3.88</v>
+      </c>
+      <c r="J50">
+        <v>-0.25790000000000002</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>3.57</v>
+      </c>
+      <c r="J51">
+        <v>-0.31180000000000002</v>
+      </c>
+      <c r="K51" t="s">
         <v>13</v>
       </c>
     </row>

--- a/buckling/misc/Results Sept 3 2025.xlsx
+++ b/buckling/misc/Results Sept 3 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbonnell\Desktop\lase\projects\ultimate-strength\buckling\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3E3796-548D-44FE-922B-A58A74DE9966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D87676-77B7-44CE-8329-71803DBCB61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>U1</t>
   </si>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,12 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,17 +1021,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Complete</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both sides loaded</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1041,15 +1049,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1057,347 +1061,173 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$53</c:f>
+              <c:f>Sheet1!$Q$3:$Q$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.94168E-7</c:v>
+                  <c:v>2.4563032638980076E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8833599999999999E-7</c:v>
+                  <c:v>4.9110822146758437E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7958800000000001E-7</c:v>
+                  <c:v>8.5903149738442153E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11646E-6</c:v>
+                  <c:v>1.410229888278991E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.77178E-6</c:v>
+                  <c:v>2.2353901294991374E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7547500000000002E-6</c:v>
+                  <c:v>3.4691081964410841E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2291900000000002E-6</c:v>
+                  <c:v>5.3093524184077978E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4408500000000003E-6</c:v>
+                  <c:v>8.0412958050146699E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7582999999999994E-6</c:v>
+                  <c:v>1.2052636593580246E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4734400000000001E-5</c:v>
+                  <c:v>1.7765470547601581E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2198400000000001E-5</c:v>
+                  <c:v>2.5119797792285681E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3394099999999999E-5</c:v>
+                  <c:v>3.2167304307222366E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0186699999999998E-5</c:v>
+                  <c:v>3.7009266670793295E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.53738E-5</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1.1315E-4</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.69805E-4</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>2.5476399999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>3.8214500000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>5.7307899999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>8.5911099999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1.2871E-3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1.9255299999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>2.8675699999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>4.1837100000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>5.0255600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>5.2528799999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>5.4262299999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>5.6490000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>5.9571199999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>6.4234699999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>7.1950800000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>8.5681799999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>1.1142000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>1.6225199999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>2.2898700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>3.11489E-2</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>4.0879199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>5.1965400000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>6.3702300000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>7.7530299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>9.2502200000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.108428</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.112509</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.116621</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.11894100000000001</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.120245</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.120313</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.12041499999999999</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.120569</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.120796</c:v>
+                  <c:v>4.0465919300913811E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3520727194845676E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6822289004921913E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0914478488266468E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6540942750871181E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5123680979013443E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9624205827713013E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0623542591929436E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$3:$AO$53</c:f>
+              <c:f>Sheet1!$P$3:$P$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>667</c:v>
+                  <c:v>99900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1170</c:v>
+                  <c:v>175000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>4730</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>7260</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>16800</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>25300</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>38100</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>57300</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>86200</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>129000</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>194000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>291000</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>437000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>656000</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>984000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>1470000</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>2210000</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>4910000</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>7130000</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>8670000</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>8850000</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>9050000</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>9280000</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>9550000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>9900000</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>10400000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>11800000</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>12600000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>13400000</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>14300000</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>15600000</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>16200000</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>16500000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>16600000.000000002</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>16600000.000000002</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>16500000</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>16399999.999999998</c:v>
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>455000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>706000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2450000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3620000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5110000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6530000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7470000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8080000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8530000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8930000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9330000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11500000</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80AB-409F-986F-9BBE48DF8CCF}"/>
+              <c16:uniqueId val="{00000008-22DB-406C-A808-95113D62EEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>Parametric</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1408,15 +1238,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1424,324 +1250,204 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AS$3:$AS$53</c:f>
+              <c:f>Sheet1!$AS$3:$AS$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7693400000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.3494399999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>2.3496699999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.8301399999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>6.0263099999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>9.4598700000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.47353E-3</c:v>
+                  <c:v>5.8103299999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1620100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0333700000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3401700000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2998399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2380999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2642600000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>2.4072199999999998E-3</c:v>
+                  <c:v>1.9242799999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>3.8452299999999998E-3</c:v>
+                  <c:v>2.9127299999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>6.0134100000000003E-3</c:v>
+                  <c:v>4.3915600000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>9.3079400000000007E-3</c:v>
+                  <c:v>6.6000100000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.2618600000000001E-2</c:v>
+                  <c:v>9.8861999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.5913199999999999E-2</c:v>
+                  <c:v>1.4736599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.9187099999999999E-2</c:v>
+                  <c:v>2.1742100000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.2442199999999999E-2</c:v>
+                  <c:v>3.1153800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2.72325E-2</c:v>
+                  <c:v>4.0900199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>3.1779000000000002E-2</c:v>
+                  <c:v>4.7497900000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>3.6075099999999999E-2</c:v>
+                  <c:v>5.28789E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>4.0372100000000001E-2</c:v>
+                  <c:v>5.8905399999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>4.2912600000000002E-2</c:v>
+                  <c:v>6.6839300000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>4.6917399999999998E-2</c:v>
+                  <c:v>7.8597100000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>5.1117299999999997E-2</c:v>
+                  <c:v>9.8061399999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>5.5335099999999998E-2</c:v>
+                  <c:v>1.33338E-2</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.9532000000000002E-2</c:v>
+                  <c:v>1.77374E-2</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>6.3679299999999994E-2</c:v>
+                  <c:v>2.31197E-2</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>6.77508E-2</c:v>
+                  <c:v>2.9474500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>7.1720599999999995E-2</c:v>
+                  <c:v>4.0759200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>7.5595200000000001E-2</c:v>
+                  <c:v>5.4028300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>7.9392400000000002E-2</c:v>
+                  <c:v>5.7628100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>8.4911600000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>9.2775999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>9.9914100000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.106173</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0.111276</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0.11191</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0.112043</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.112126</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0.112169</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.11218500000000001</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0.11216</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0.11211699999999999</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.112009</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.11189300000000001</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.11182400000000001</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.111846</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.11187800000000001</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.111938</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.112028</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.112153</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.112513</c:v>
+                  <c:v>6.3215499999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AR$3:$AR$53</c:f>
+              <c:f>Sheet1!$AR$3:$AR$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99700</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>564000</c:v>
+                  <c:v>57500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>873000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1210000</c:v>
+                  <c:v>91200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>1600000</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>1860000</c:v>
+                  <c:v>331000</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2180000</c:v>
+                  <c:v>501000</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>2590000</c:v>
+                  <c:v>756000</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>3040000</c:v>
+                  <c:v>1140000</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>3370000</c:v>
+                  <c:v>1700000</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>3590000</c:v>
+                  <c:v>2530000</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>3730000</c:v>
+                  <c:v>3740000</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>3820000</c:v>
+                  <c:v>5350000</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>3820000</c:v>
+                  <c:v>6980000</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>3700000</c:v>
+                  <c:v>7970000</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>3550000</c:v>
+                  <c:v>8610000</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>3400000</c:v>
+                  <c:v>9170000</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3360000</c:v>
+                  <c:v>9740000</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>3340000</c:v>
+                  <c:v>10400000</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>3390000</c:v>
+                  <c:v>11100000</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>3520000</c:v>
+                  <c:v>11900000</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>3690000</c:v>
+                  <c:v>12600000</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>3890000</c:v>
+                  <c:v>13300000</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>4110000.0000000005</c:v>
+                  <c:v>13900000</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>4340000</c:v>
+                  <c:v>14900000</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>4570000</c:v>
+                  <c:v>15900000</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>4800000</c:v>
+                  <c:v>16100000.000000002</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>5150000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>5680000</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>6180000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>6620000</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>6980000</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>7020000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>7020000</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>6970000</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>6890000</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>6770000</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>6630000</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>6400000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>5580000</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>5190000</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>4860000</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>4580000</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>4340000</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>4139999.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>3880000</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>3570000</c:v>
+                  <c:v>16399999.999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,7 +1455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-481F-4909-B9F9-36CA87EDF383}"/>
+              <c16:uniqueId val="{00000004-3D2A-4EEC-9D8E-ABB67D412090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1763,1362 +1469,7 @@
         </c:dLbls>
         <c:axId val="811217216"/>
         <c:axId val="1024996288"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Both sides loaded</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$3:$Q$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="22"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.4563032638980076E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.9110822146758437E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8.5903149738442153E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.410229888278991E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.2353901294991374E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3.4691081964410841E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5.3093524184077978E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8.0412958050146699E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.2052636593580246E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.7765470547601581E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.5119797792285681E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3.2167304307222366E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>3.7009266670793295E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>4.0465919300913811E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4.3520727194845676E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>4.6822289004921913E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>5.0914478488266468E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>5.6540942750871181E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>6.5123680979013443E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>7.9624205827713013E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.0623542591929436E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$3:$P$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="22"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>99900</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>175000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>287000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>455000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>706000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1080000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1640000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2450000</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3620000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>5110000</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>6530000</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>7470000</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>8080000</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>8530000</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>8930000</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>9330000</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>9760000</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>10200000</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>10800000</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>11500000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-22DB-406C-A808-95113D62EEC8}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:v>Plate</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG$3:$AG$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.0095999999999999E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.4630099999999999E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.0148100000000002E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.5503800000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7.9794000000000002E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>9.2796100000000004E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>1.05327E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="8" formatCode="General">
-                        <c:v>1.19771E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="9" formatCode="General">
-                        <c:v>1.4129400000000001E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="10" formatCode="General">
-                        <c:v>1.80638E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="11" formatCode="General">
-                        <c:v>2.6012399999999998E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="12" formatCode="General">
-                        <c:v>4.2591999999999999E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="13" formatCode="General">
-                        <c:v>7.7570899999999997E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="14" formatCode="General">
-                        <c:v>1.52918E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="15" formatCode="General">
-                        <c:v>3.1730600000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="16" formatCode="General">
-                        <c:v>5.3974899999999996E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="17" formatCode="General">
-                        <c:v>8.1933300000000004E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="18" formatCode="General">
-                        <c:v>1.3487300000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19" formatCode="General">
-                        <c:v>2.0093E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="20" formatCode="General">
-                        <c:v>2.0206999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21" formatCode="General">
-                        <c:v>2.0321700000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="22" formatCode="General">
-                        <c:v>2.0495099999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="23" formatCode="General">
-                        <c:v>2.07578E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="24" formatCode="General">
-                        <c:v>2.1159000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="25" formatCode="General">
-                        <c:v>2.1320700000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="26" formatCode="General">
-                        <c:v>2.1333899999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27" formatCode="General">
-                        <c:v>2.1329899999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="28" formatCode="General">
-                        <c:v>2.1279800000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="29" formatCode="General">
-                        <c:v>2.11953E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="30" formatCode="General">
-                        <c:v>2.10674E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="31" formatCode="General">
-                        <c:v>2.0877300000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="32" formatCode="General">
-                        <c:v>2.05953E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="33" formatCode="General">
-                        <c:v>2.0179099999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="34" formatCode="General">
-                        <c:v>1.9569599999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="35" formatCode="General">
-                        <c:v>1.8676399999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="36" formatCode="General">
-                        <c:v>1.86301E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="37" formatCode="General">
-                        <c:v>1.8560799999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="38" formatCode="General">
-                        <c:v>1.8457299999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="39" formatCode="General">
-                        <c:v>1.83035E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="40" formatCode="General">
-                        <c:v>1.8062100000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="41" formatCode="General">
-                        <c:v>1.7839000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="42" formatCode="General">
-                        <c:v>1.7621700000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="43" formatCode="General">
-                        <c:v>1.7403499999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44" formatCode="General">
-                        <c:v>1.7077800000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45" formatCode="General">
-                        <c:v>1.65959E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46" formatCode="General">
-                        <c:v>1.5935999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47" formatCode="General">
-                        <c:v>1.4922100000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48" formatCode="General">
-                        <c:v>1.34796E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49" formatCode="General">
-                        <c:v>1.26575E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50" formatCode="General">
-                        <c:v>1.16548E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AF$3:$AF$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>42100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>72400</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>105000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>136000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>165000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>190000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>212000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>233000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>257000</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>293000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>358000</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>477000</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>686000</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1030000</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1600000</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2220000</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2870000</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3930000</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>5060000</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>5080000</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>5090000</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>5120000</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>5160000</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>5220000</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>5240000</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>5240000</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>5240000</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>5240000</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>5230000</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>5210000</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>5180000</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>5140000</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>5070000</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>4980000</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>4830000</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4820000</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>4810000</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>4790000</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4770000</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4730000</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4690000</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4650000</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4610000</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4560000</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4470000</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4360000</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4179999.9999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>3910000</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>3750000</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>3540000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-DD6F-4120-962F-D2586F64B6CA}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:v>Web1</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AJ$3:$AJ$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.48129E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.9625799999999999E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.1844800000000001E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8.5173000000000004E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.3516400000000001E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.1014900000000001E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3.2262099999999999E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.9131800000000003E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>7.4433699999999998E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.12381E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1.6928900000000001E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.54622E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>3.82556E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>5.7431000000000001E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>8.61607E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1.2918000000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.9353700000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2.8968100000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4.3299600000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>6.4587500000000005E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>9.6026299999999999E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="22" formatCode="General">
-                        <c:v>1.4200199999999999E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="23" formatCode="General">
-                        <c:v>2.0806700000000001E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="24" formatCode="General">
-                        <c:v>2.9996299999999999E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="25" formatCode="General">
-                        <c:v>4.2021199999999999E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="26" formatCode="General">
-                        <c:v>5.6168699999999995E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="27" formatCode="General">
-                        <c:v>7.0571100000000003E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="28" formatCode="General">
-                        <c:v>8.3573000000000002E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="29" formatCode="General">
-                        <c:v>9.5212300000000003E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="30" formatCode="General">
-                        <c:v>1.0742900000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="31" formatCode="General">
-                        <c:v>1.2430500000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="32" formatCode="General">
-                        <c:v>1.5276300000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="33" formatCode="General">
-                        <c:v>1.9914099999999999E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="34" formatCode="General">
-                        <c:v>2.5619800000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="35" formatCode="General">
-                        <c:v>3.0145800000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="36" formatCode="General">
-                        <c:v>3.4681299999999998E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="37" formatCode="General">
-                        <c:v>3.9694500000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="38" formatCode="General">
-                        <c:v>4.8385199999999998E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="39" formatCode="General">
-                        <c:v>5.8416900000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="40" formatCode="General">
-                        <c:v>6.9806800000000004E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="41" formatCode="General">
-                        <c:v>8.2623200000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="42" formatCode="General">
-                        <c:v>9.6928199999999996E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="43" formatCode="General">
-                        <c:v>1.12751E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44" formatCode="General">
-                        <c:v>1.22316E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45" formatCode="General">
-                        <c:v>1.2241200000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46" formatCode="General">
-                        <c:v>1.22556E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47" formatCode="General">
-                        <c:v>1.2276799999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48" formatCode="General">
-                        <c:v>1.2260699999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49" formatCode="General">
-                        <c:v>1.22433E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50" formatCode="General">
-                        <c:v>1.22168E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AI$3:$AI$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14.3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>28.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>82.100000000000009</c:v>
-                      </c:pt>
-                      <c:pt idx="5" formatCode="General">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="6" formatCode="General">
-                        <c:v>203</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>311</c:v>
-                      </c:pt>
-                      <c:pt idx="8" formatCode="General">
-                        <c:v>474</c:v>
-                      </c:pt>
-                      <c:pt idx="9" formatCode="General">
-                        <c:v>718</c:v>
-                      </c:pt>
-                      <c:pt idx="10" formatCode="General">
-                        <c:v>1080</c:v>
-                      </c:pt>
-                      <c:pt idx="11" formatCode="General">
-                        <c:v>1630</c:v>
-                      </c:pt>
-                      <c:pt idx="12" formatCode="General">
-                        <c:v>2460</c:v>
-                      </c:pt>
-                      <c:pt idx="13" formatCode="General">
-                        <c:v>3690</c:v>
-                      </c:pt>
-                      <c:pt idx="14" formatCode="General">
-                        <c:v>5540</c:v>
-                      </c:pt>
-                      <c:pt idx="15" formatCode="General">
-                        <c:v>8310</c:v>
-                      </c:pt>
-                      <c:pt idx="16" formatCode="General">
-                        <c:v>12500</c:v>
-                      </c:pt>
-                      <c:pt idx="17" formatCode="General">
-                        <c:v>18700</c:v>
-                      </c:pt>
-                      <c:pt idx="18" formatCode="General">
-                        <c:v>27900</c:v>
-                      </c:pt>
-                      <c:pt idx="19" formatCode="General">
-                        <c:v>41800</c:v>
-                      </c:pt>
-                      <c:pt idx="20" formatCode="General">
-                        <c:v>62300</c:v>
-                      </c:pt>
-                      <c:pt idx="21" formatCode="General">
-                        <c:v>92600</c:v>
-                      </c:pt>
-                      <c:pt idx="22" formatCode="General">
-                        <c:v>137000</c:v>
-                      </c:pt>
-                      <c:pt idx="23" formatCode="General">
-                        <c:v>201000</c:v>
-                      </c:pt>
-                      <c:pt idx="24" formatCode="General">
-                        <c:v>289000</c:v>
-                      </c:pt>
-                      <c:pt idx="25" formatCode="General">
-                        <c:v>405000</c:v>
-                      </c:pt>
-                      <c:pt idx="26" formatCode="General">
-                        <c:v>541000</c:v>
-                      </c:pt>
-                      <c:pt idx="27" formatCode="General">
-                        <c:v>678000</c:v>
-                      </c:pt>
-                      <c:pt idx="28" formatCode="General">
-                        <c:v>800000</c:v>
-                      </c:pt>
-                      <c:pt idx="29" formatCode="General">
-                        <c:v>903000</c:v>
-                      </c:pt>
-                      <c:pt idx="30" formatCode="General">
-                        <c:v>1000000</c:v>
-                      </c:pt>
-                      <c:pt idx="31" formatCode="General">
-                        <c:v>1120000</c:v>
-                      </c:pt>
-                      <c:pt idx="32" formatCode="General">
-                        <c:v>1310000</c:v>
-                      </c:pt>
-                      <c:pt idx="33" formatCode="General">
-                        <c:v>1590000</c:v>
-                      </c:pt>
-                      <c:pt idx="34" formatCode="General">
-                        <c:v>1890000</c:v>
-                      </c:pt>
-                      <c:pt idx="35" formatCode="General">
-                        <c:v>2080000</c:v>
-                      </c:pt>
-                      <c:pt idx="36" formatCode="General">
-                        <c:v>2250000</c:v>
-                      </c:pt>
-                      <c:pt idx="37" formatCode="General">
-                        <c:v>2420000</c:v>
-                      </c:pt>
-                      <c:pt idx="38" formatCode="General">
-                        <c:v>2690000</c:v>
-                      </c:pt>
-                      <c:pt idx="39" formatCode="General">
-                        <c:v>2960000</c:v>
-                      </c:pt>
-                      <c:pt idx="40" formatCode="General">
-                        <c:v>3250000</c:v>
-                      </c:pt>
-                      <c:pt idx="41" formatCode="General">
-                        <c:v>3540000</c:v>
-                      </c:pt>
-                      <c:pt idx="42" formatCode="General">
-                        <c:v>3850000</c:v>
-                      </c:pt>
-                      <c:pt idx="43" formatCode="General">
-                        <c:v>4179999.9999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="44" formatCode="General">
-                        <c:v>4360000</c:v>
-                      </c:pt>
-                      <c:pt idx="45" formatCode="General">
-                        <c:v>4360000</c:v>
-                      </c:pt>
-                      <c:pt idx="46" formatCode="General">
-                        <c:v>4370000</c:v>
-                      </c:pt>
-                      <c:pt idx="47" formatCode="General">
-                        <c:v>4370000</c:v>
-                      </c:pt>
-                      <c:pt idx="48" formatCode="General">
-                        <c:v>4370000</c:v>
-                      </c:pt>
-                      <c:pt idx="49" formatCode="General">
-                        <c:v>4360000</c:v>
-                      </c:pt>
-                      <c:pt idx="50" formatCode="General">
-                        <c:v>4360000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-3488-4D1E-B158-4E8204980AD9}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:v>Web4</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AM$3:$AM$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.96039E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.9207500000000002E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.8612599999999996E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.1271899999999999E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.7887699999999999E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.7810900000000001E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.2694500000000003E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>6.50175E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9.8496300000000001E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.48702E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.2398100000000002E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3.3683499999999997E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5.0596400000000002E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>7.5931099999999995E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="15" formatCode="General">
-                        <c:v>1.1385199999999999E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="16" formatCode="General">
-                        <c:v>1.70538E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="17" formatCode="General">
-                        <c:v>2.5509000000000003E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="18" formatCode="General">
-                        <c:v>3.8069200000000002E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="19" formatCode="General">
-                        <c:v>5.6574200000000005E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="20" formatCode="General">
-                        <c:v>8.3334800000000003E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="21" formatCode="General">
-                        <c:v>1.2024E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="22" formatCode="General">
-                        <c:v>1.65197E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="23" formatCode="General">
-                        <c:v>2.0837299999999998E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="24" formatCode="General">
-                        <c:v>2.42238E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="25" formatCode="General">
-                        <c:v>2.6801300000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="26" formatCode="General">
-                        <c:v>2.8988199999999999E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="27" formatCode="General">
-                        <c:v>3.1332399999999998E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="28" formatCode="General">
-                        <c:v>3.4663200000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="29" formatCode="General">
-                        <c:v>4.0449600000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="30" formatCode="General">
-                        <c:v>5.14212E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="31" formatCode="General">
-                        <c:v>5.4603100000000003E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="32" formatCode="General">
-                        <c:v>5.7976599999999996E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="33" formatCode="General">
-                        <c:v>6.3374900000000003E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="34" formatCode="General">
-                        <c:v>7.2435800000000003E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="35" formatCode="General">
-                        <c:v>8.85559E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="36" formatCode="General">
-                        <c:v>1.17778E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="37" formatCode="General">
-                        <c:v>1.5282799999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="38" formatCode="General">
-                        <c:v>1.9355399999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="39" formatCode="General">
-                        <c:v>2.6518099999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="40" formatCode="General">
-                        <c:v>3.9507199999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="41" formatCode="General">
-                        <c:v>5.4922899999999997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="42" formatCode="General">
-                        <c:v>5.9179700000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="43" formatCode="General">
-                        <c:v>6.3578700000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44" formatCode="General">
-                        <c:v>7.0434899999999995E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45" formatCode="General">
-                        <c:v>8.1266699999999997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46" formatCode="General">
-                        <c:v>8.1440799999999994E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47" formatCode="General">
-                        <c:v>8.1614999999999993E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48" formatCode="General">
-                        <c:v>8.1876599999999994E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49" formatCode="General">
-                        <c:v>8.2269599999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50" formatCode="General">
-                        <c:v>8.2860299999999998E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AL$3:$AL$53</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="51"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>333</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1170</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1920</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3040</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4730</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7260</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>11100</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16700</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>25300</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>38100</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>57300</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>86000</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>129000</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>194000</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>290000</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>434000</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>647000</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>962000</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1420000</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2040000</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2810000</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>3540000</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>4099999.9999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>4520000</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>4840000</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>5120000</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>5440000</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>5850000</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>6420000</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>6540000</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>6660000</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>6830000</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>7070000</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>7380000</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7860000</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>8359999.9999999991</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>8900000</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>9730000</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>11000000</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>12200000</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>12400000</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>12700000</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>13100000</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>13600000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-80AB-409F-986F-9BBE48DF8CCF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="811217216"/>
@@ -4319,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT55"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,16 +2693,18 @@
     <col min="36" max="38" width="9" style="1"/>
     <col min="39" max="39" width="9" style="9"/>
     <col min="40" max="45" width="9" style="1"/>
-    <col min="46" max="46" width="9" style="9"/>
-    <col min="47" max="16384" width="9" style="1"/>
+    <col min="46" max="46" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9" style="1"/>
+    <col min="50" max="51" width="9" style="9"/>
+    <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="14" t="s">
+    <row r="1" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
@@ -4361,10 +2714,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="15"/>
       <c r="AF1" s="13" t="s">
         <v>11</v>
       </c>
@@ -4386,12 +2739,14 @@
       </c>
       <c r="AS1" s="13"/>
       <c r="AT1" s="11"/>
-    </row>
-    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+    </row>
+    <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4444,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4509,15 +2864,15 @@
       <c r="AP3" s="1">
         <v>0</v>
       </c>
-      <c r="AR3" s="1">
-        <f>0</f>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="11">
         <v>0</v>
       </c>
       <c r="AS3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -4585,15 +2940,21 @@
       <c r="AP4" s="12">
         <v>1.94168E-7</v>
       </c>
-      <c r="AQ4" s="11"/>
+      <c r="AQ4" s="12">
+        <f>(1000000)*AR4</f>
+        <v>10000000000</v>
+      </c>
       <c r="AR4" s="11">
-        <v>99700</v>
+        <v>10000</v>
       </c>
       <c r="AS4" s="12">
-        <v>6.7693400000000005E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+        <v>5.8103299999999996E-6</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="12"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.34529582929194902</v>
       </c>
@@ -4661,15 +3022,19 @@
       <c r="AP5" s="12">
         <v>3.8833599999999999E-7</v>
       </c>
-      <c r="AQ5" s="11"/>
+      <c r="AQ5" s="12">
+        <f t="shared" ref="AQ5:AQ33" si="3">(1000000)*AR5</f>
+        <v>20000000000</v>
+      </c>
       <c r="AR5" s="11">
-        <v>199000</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>1.3494399999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>1.1620100000000001E-5</v>
+      </c>
+      <c r="AU5" s="9"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.81862269641125096</v>
       </c>
@@ -4737,15 +3102,19 @@
       <c r="AP6" s="12">
         <v>6.7958800000000001E-7</v>
       </c>
-      <c r="AQ6" s="11"/>
+      <c r="AQ6" s="12">
+        <f t="shared" si="3"/>
+        <v>35000000000</v>
+      </c>
       <c r="AR6" s="11">
-        <v>346000</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>2.3496699999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>2.0333700000000002E-5</v>
+      </c>
+      <c r="AU6" s="9"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.48593598448108</v>
       </c>
@@ -4813,15 +3182,19 @@
       <c r="AP7" s="12">
         <v>1.11646E-6</v>
       </c>
-      <c r="AQ7" s="11"/>
+      <c r="AQ7" s="12">
+        <f t="shared" si="3"/>
+        <v>57500000000</v>
+      </c>
       <c r="AR7" s="11">
-        <v>564000</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>3.8301399999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+        <v>57500</v>
+      </c>
+      <c r="AS7" s="12">
+        <v>3.3401700000000002E-5</v>
+      </c>
+      <c r="AU7" s="9"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2.3278370514064002</v>
       </c>
@@ -4889,15 +3262,19 @@
       <c r="AP8" s="12">
         <v>1.77178E-6</v>
       </c>
-      <c r="AQ8" s="11"/>
+      <c r="AQ8" s="12">
+        <f t="shared" si="3"/>
+        <v>91200000000</v>
+      </c>
       <c r="AR8" s="11">
-        <v>873000</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>6.0263099999999996E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+        <v>91200</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>5.2998399999999997E-5</v>
+      </c>
+      <c r="AU8" s="9"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3.1852570320077498</v>
       </c>
@@ -4965,15 +3342,19 @@
       <c r="AP9" s="12">
         <v>2.7547500000000002E-6</v>
       </c>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="9">
-        <v>1210000</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>9.4598700000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="12">
+        <f t="shared" si="3"/>
+        <v>142000000000</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>142000</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>8.2380999999999996E-5</v>
+      </c>
+      <c r="AU9" s="9"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3.8836081474296802</v>
       </c>
@@ -5041,15 +3422,19 @@
       <c r="AP10" s="12">
         <v>4.2291900000000002E-6</v>
       </c>
-      <c r="AQ10" s="11"/>
+      <c r="AQ10" s="12">
+        <f t="shared" si="3"/>
+        <v>218000000000</v>
+      </c>
       <c r="AR10" s="9">
-        <v>1600000</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>1.47353E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+        <v>218000</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>1.2642600000000001E-4</v>
+      </c>
+      <c r="AU10" s="9"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4.5780795344325798</v>
       </c>
@@ -5117,15 +3502,19 @@
       <c r="AP11" s="12">
         <v>6.4408500000000003E-6</v>
       </c>
-      <c r="AQ11" s="11"/>
+      <c r="AQ11" s="12">
+        <f t="shared" si="3"/>
+        <v>331000000000</v>
+      </c>
       <c r="AR11" s="9">
-        <v>1860000</v>
+        <v>331000</v>
       </c>
       <c r="AS11" s="1">
-        <v>2.4072199999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+        <v>1.9242799999999999E-4</v>
+      </c>
+      <c r="AU11" s="9"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.5945683802133797</v>
       </c>
@@ -5193,15 +3582,19 @@
       <c r="AP12" s="12">
         <v>9.7582999999999994E-6</v>
       </c>
-      <c r="AQ12" s="11"/>
+      <c r="AQ12" s="12">
+        <f t="shared" si="3"/>
+        <v>501000000000</v>
+      </c>
       <c r="AR12" s="9">
-        <v>2180000</v>
+        <v>501000</v>
       </c>
       <c r="AS12" s="1">
-        <v>3.8452299999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2.9127299999999999E-4</v>
+      </c>
+      <c r="AU12" s="9"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.6925315227934004</v>
       </c>
@@ -5269,15 +3662,19 @@
       <c r="AP13" s="12">
         <v>1.4734400000000001E-5</v>
       </c>
-      <c r="AQ13" s="11"/>
+      <c r="AQ13" s="12">
+        <f t="shared" si="3"/>
+        <v>756000000000</v>
+      </c>
       <c r="AR13" s="9">
-        <v>2590000</v>
+        <v>756000</v>
       </c>
       <c r="AS13" s="1">
-        <v>6.0134100000000003E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+        <v>4.3915600000000001E-4</v>
+      </c>
+      <c r="AU13" s="9"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7.9806013579049404</v>
       </c>
@@ -5345,15 +3742,19 @@
       <c r="AP14" s="12">
         <v>2.2198400000000001E-5</v>
       </c>
-      <c r="AQ14" s="11"/>
+      <c r="AQ14" s="12">
+        <f t="shared" si="3"/>
+        <v>1140000000000</v>
+      </c>
       <c r="AR14" s="9">
-        <v>3040000</v>
+        <v>1140000</v>
       </c>
       <c r="AS14" s="1">
-        <v>9.3079400000000007E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+        <v>6.6000100000000001E-4</v>
+      </c>
+      <c r="AU14" s="9"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>7420000</v>
       </c>
@@ -5407,15 +3808,19 @@
       <c r="AP15" s="12">
         <v>3.3394099999999999E-5</v>
       </c>
-      <c r="AQ15" s="11"/>
+      <c r="AQ15" s="12">
+        <f t="shared" si="3"/>
+        <v>1700000000000</v>
+      </c>
       <c r="AR15" s="9">
-        <v>3370000</v>
+        <v>1700000</v>
       </c>
       <c r="AS15" s="1">
-        <v>1.2618600000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+        <v>9.8861999999999995E-4</v>
+      </c>
+      <c r="AU15" s="9"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>8410000</v>
       </c>
@@ -5469,17 +3874,21 @@
       <c r="AP16" s="12">
         <v>5.0186699999999998E-5</v>
       </c>
-      <c r="AQ16" s="11"/>
+      <c r="AQ16" s="12">
+        <f t="shared" si="3"/>
+        <v>2530000000000</v>
+      </c>
       <c r="AR16" s="9">
-        <v>3590000</v>
+        <v>2530000</v>
       </c>
       <c r="AS16" s="1">
-        <v>1.5913199999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+        <v>1.4736599999999999E-3</v>
+      </c>
+      <c r="AU16" s="9"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="F17" s="1">
         <v>9020000</v>
       </c>
@@ -5533,15 +3942,19 @@
       <c r="AP17" s="12">
         <v>7.53738E-5</v>
       </c>
-      <c r="AQ17" s="11"/>
+      <c r="AQ17" s="12">
+        <f t="shared" si="3"/>
+        <v>3740000000000</v>
+      </c>
       <c r="AR17" s="9">
-        <v>3730000</v>
+        <v>3740000</v>
       </c>
       <c r="AS17" s="1">
-        <v>1.9187099999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.1742100000000002E-3</v>
+      </c>
+      <c r="AU17" s="9"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="F18" s="1">
@@ -5597,15 +4010,19 @@
       <c r="AP18" s="1">
         <v>1.1315E-4</v>
       </c>
-      <c r="AQ18" s="11"/>
+      <c r="AQ18" s="12">
+        <f t="shared" si="3"/>
+        <v>5350000000000</v>
+      </c>
       <c r="AR18" s="9">
-        <v>3820000</v>
+        <v>5350000</v>
       </c>
       <c r="AS18" s="1">
-        <v>2.2442199999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3.1153800000000001E-3</v>
+      </c>
+      <c r="AU18" s="9"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -5662,15 +4079,19 @@
       <c r="AP19" s="1">
         <v>1.69805E-4</v>
       </c>
-      <c r="AQ19" s="11"/>
+      <c r="AQ19" s="12">
+        <f t="shared" si="3"/>
+        <v>6980000000000</v>
+      </c>
       <c r="AR19" s="9">
-        <v>3820000</v>
+        <v>6980000</v>
       </c>
       <c r="AS19" s="1">
-        <v>2.72325E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.0900199999999998E-3</v>
+      </c>
+      <c r="AU19" s="9"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -5727,15 +4148,19 @@
       <c r="AP20" s="1">
         <v>2.5476399999999999E-4</v>
       </c>
-      <c r="AQ20" s="11"/>
+      <c r="AQ20" s="12">
+        <f t="shared" si="3"/>
+        <v>7970000000000</v>
+      </c>
       <c r="AR20" s="9">
-        <v>3700000</v>
+        <v>7970000</v>
       </c>
       <c r="AS20" s="1">
-        <v>3.1779000000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.7497900000000003E-3</v>
+      </c>
+      <c r="AU20" s="9"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -5792,15 +4217,19 @@
       <c r="AP21" s="1">
         <v>3.8214500000000002E-4</v>
       </c>
-      <c r="AQ21" s="11"/>
+      <c r="AQ21" s="12">
+        <f t="shared" si="3"/>
+        <v>8610000000000</v>
+      </c>
       <c r="AR21" s="9">
-        <v>3550000</v>
+        <v>8610000</v>
       </c>
       <c r="AS21" s="1">
-        <v>3.6075099999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.28789E-3</v>
+      </c>
+      <c r="AU21" s="9"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -5857,15 +4286,19 @@
       <c r="AP22" s="1">
         <v>5.7307899999999999E-4</v>
       </c>
-      <c r="AQ22" s="11"/>
+      <c r="AQ22" s="12">
+        <f t="shared" si="3"/>
+        <v>9170000000000</v>
+      </c>
       <c r="AR22" s="9">
-        <v>3400000</v>
+        <v>9170000</v>
       </c>
       <c r="AS22" s="1">
-        <v>4.0372100000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.8905399999999997E-3</v>
+      </c>
+      <c r="AU22" s="9"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -5922,15 +4355,19 @@
       <c r="AP23" s="1">
         <v>8.5911099999999997E-4</v>
       </c>
-      <c r="AQ23" s="11"/>
+      <c r="AQ23" s="12">
+        <f t="shared" si="3"/>
+        <v>9740000000000</v>
+      </c>
       <c r="AR23" s="9">
-        <v>3360000</v>
+        <v>9740000</v>
       </c>
       <c r="AS23" s="1">
-        <v>4.2912600000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.6839300000000003E-3</v>
+      </c>
+      <c r="AU23" s="9"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -5983,15 +4420,19 @@
       <c r="AP24" s="1">
         <v>1.2871E-3</v>
       </c>
-      <c r="AQ24" s="11"/>
+      <c r="AQ24" s="12">
+        <f t="shared" si="3"/>
+        <v>10400000000000</v>
+      </c>
       <c r="AR24" s="9">
-        <v>3340000</v>
+        <v>10400000</v>
       </c>
       <c r="AS24" s="1">
-        <v>4.6917399999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7.8597100000000007E-3</v>
+      </c>
+      <c r="AU24" s="9"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -6038,15 +4479,19 @@
       <c r="AP25" s="1">
         <v>1.9255299999999999E-3</v>
       </c>
-      <c r="AQ25" s="11"/>
+      <c r="AQ25" s="12">
+        <f t="shared" si="3"/>
+        <v>11100000000000</v>
+      </c>
       <c r="AR25" s="9">
-        <v>3390000</v>
+        <v>11100000</v>
       </c>
       <c r="AS25" s="1">
-        <v>5.1117299999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.8061399999999996E-3</v>
+      </c>
+      <c r="AU25" s="9"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -6085,15 +4530,19 @@
       <c r="AP26" s="1">
         <v>2.8675699999999998E-3</v>
       </c>
-      <c r="AQ26" s="11"/>
+      <c r="AQ26" s="12">
+        <f t="shared" si="3"/>
+        <v>11900000000000</v>
+      </c>
       <c r="AR26" s="9">
-        <v>3520000</v>
+        <v>11900000</v>
       </c>
       <c r="AS26" s="1">
-        <v>5.5335099999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.33338E-2</v>
+      </c>
+      <c r="AU26" s="9"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
@@ -6132,15 +4581,19 @@
       <c r="AP27" s="1">
         <v>4.1837100000000002E-3</v>
       </c>
-      <c r="AQ27" s="11"/>
+      <c r="AQ27" s="12">
+        <f t="shared" si="3"/>
+        <v>12600000000000</v>
+      </c>
       <c r="AR27" s="9">
-        <v>3690000</v>
+        <v>12600000</v>
       </c>
       <c r="AS27" s="1">
-        <v>5.9532000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.77374E-2</v>
+      </c>
+      <c r="AU27" s="9"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
@@ -6179,15 +4632,19 @@
       <c r="AP28" s="1">
         <v>5.0255600000000001E-3</v>
       </c>
-      <c r="AQ28" s="11"/>
+      <c r="AQ28" s="12">
+        <f t="shared" si="3"/>
+        <v>13300000000000</v>
+      </c>
       <c r="AR28" s="9">
-        <v>3890000</v>
+        <v>13300000</v>
       </c>
       <c r="AS28" s="1">
-        <v>6.3679299999999994E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.31197E-2</v>
+      </c>
+      <c r="AU28" s="9"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -6226,15 +4683,19 @@
       <c r="AP29" s="1">
         <v>5.2528799999999997E-3</v>
       </c>
-      <c r="AQ29" s="11"/>
+      <c r="AQ29" s="12">
+        <f t="shared" si="3"/>
+        <v>13900000000000</v>
+      </c>
       <c r="AR29" s="9">
-        <v>4110000.0000000005</v>
+        <v>13900000</v>
       </c>
       <c r="AS29" s="1">
-        <v>6.77508E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.9474500000000001E-2</v>
+      </c>
+      <c r="AU29" s="9"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -6273,15 +4734,19 @@
       <c r="AP30" s="1">
         <v>5.4262299999999998E-3</v>
       </c>
-      <c r="AQ30" s="11"/>
+      <c r="AQ30" s="12">
+        <f t="shared" si="3"/>
+        <v>14900000000000</v>
+      </c>
       <c r="AR30" s="9">
-        <v>4340000</v>
+        <v>14900000</v>
       </c>
       <c r="AS30" s="1">
-        <v>7.1720599999999995E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.0759200000000002E-2</v>
+      </c>
+      <c r="AU30" s="9"/>
+    </row>
+    <row r="31" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -6320,15 +4785,19 @@
       <c r="AP31" s="1">
         <v>5.6490000000000004E-3</v>
       </c>
-      <c r="AQ31" s="11"/>
+      <c r="AQ31" s="12">
+        <f t="shared" si="3"/>
+        <v>15900000000000</v>
+      </c>
       <c r="AR31" s="9">
-        <v>4570000</v>
+        <v>15900000</v>
       </c>
       <c r="AS31" s="1">
-        <v>7.5595200000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.4028300000000001E-2</v>
+      </c>
+      <c r="AU31" s="9"/>
+    </row>
+    <row r="32" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
@@ -6367,15 +4836,19 @@
       <c r="AP32" s="1">
         <v>5.9571199999999998E-3</v>
       </c>
-      <c r="AQ32" s="11"/>
+      <c r="AQ32" s="12">
+        <f t="shared" si="3"/>
+        <v>16100000000000.002</v>
+      </c>
       <c r="AR32" s="9">
-        <v>4800000</v>
+        <v>16100000.000000002</v>
       </c>
       <c r="AS32" s="1">
-        <v>7.9392400000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.7628100000000002E-2</v>
+      </c>
+      <c r="AU32" s="9"/>
+    </row>
+    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -6414,15 +4887,19 @@
       <c r="AP33" s="1">
         <v>6.4234699999999997E-3</v>
       </c>
-      <c r="AQ33" s="11"/>
+      <c r="AQ33" s="12">
+        <f t="shared" si="3"/>
+        <v>16399999999999.998</v>
+      </c>
       <c r="AR33" s="9">
-        <v>5150000</v>
+        <v>16399999.999999998</v>
       </c>
       <c r="AS33" s="1">
-        <v>8.4911600000000004E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.3215499999999994E-2</v>
+      </c>
+      <c r="AU33" s="9"/>
+    </row>
+    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
@@ -6461,15 +4938,11 @@
       <c r="AP34" s="1">
         <v>7.1950800000000004E-3</v>
       </c>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="9">
-        <v>5680000</v>
-      </c>
-      <c r="AS34" s="1">
-        <v>9.2775999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="9"/>
+      <c r="AU34" s="9"/>
+    </row>
+    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
@@ -6508,15 +4981,11 @@
       <c r="AP35" s="1">
         <v>8.5681799999999999E-3</v>
       </c>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="9">
-        <v>6180000</v>
-      </c>
-      <c r="AS35" s="1">
-        <v>9.9914100000000006E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="9"/>
+      <c r="AU35" s="9"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F36" s="1">
         <v>11400000</v>
       </c>
@@ -6552,15 +5021,11 @@
       <c r="AP36" s="1">
         <v>1.1142000000000001E-2</v>
       </c>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="9">
-        <v>6620000</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>0.106173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="9"/>
+      <c r="AU36" s="9"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F37" s="1">
         <v>11400000</v>
       </c>
@@ -6596,15 +5061,11 @@
       <c r="AP37" s="1">
         <v>1.6225199999999999E-2</v>
       </c>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="9">
-        <v>6980000</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>0.111276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="9"/>
+      <c r="AU37" s="9"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F38" s="1">
         <v>11400000</v>
       </c>
@@ -6640,15 +5101,11 @@
       <c r="AP38" s="1">
         <v>2.2898700000000001E-2</v>
       </c>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="9">
-        <v>7020000</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>0.11191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="9"/>
+      <c r="AU38" s="9"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>11400000</v>
       </c>
@@ -6684,15 +5141,11 @@
       <c r="AP39" s="1">
         <v>3.11489E-2</v>
       </c>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="9">
-        <v>7020000</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>0.112043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="9"/>
+      <c r="AU39" s="9"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF40" s="9">
         <v>4810000</v>
       </c>
@@ -6718,15 +5171,11 @@
       <c r="AP40" s="1">
         <v>4.0879199999999997E-2</v>
       </c>
-      <c r="AQ40" s="11"/>
-      <c r="AR40" s="9">
-        <v>6970000</v>
-      </c>
-      <c r="AS40" s="1">
-        <v>0.112126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="9"/>
+      <c r="AU40" s="9"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF41" s="9">
         <v>4790000</v>
       </c>
@@ -6752,15 +5201,11 @@
       <c r="AP41" s="1">
         <v>5.1965400000000002E-2</v>
       </c>
-      <c r="AQ41" s="11"/>
-      <c r="AR41" s="9">
-        <v>6890000</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>0.112169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="9"/>
+      <c r="AU41" s="9"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF42" s="9">
         <v>4770000</v>
       </c>
@@ -6786,15 +5231,11 @@
       <c r="AP42" s="1">
         <v>6.3702300000000003E-2</v>
       </c>
-      <c r="AQ42" s="11"/>
-      <c r="AR42" s="9">
-        <v>6770000</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>0.11218500000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="9"/>
+      <c r="AU42" s="9"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF43" s="9">
         <v>4730000</v>
       </c>
@@ -6820,15 +5261,11 @@
       <c r="AP43" s="1">
         <v>7.7530299999999996E-2</v>
       </c>
-      <c r="AQ43" s="11"/>
-      <c r="AR43" s="9">
-        <v>6630000</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>0.11216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="9"/>
+      <c r="AU43" s="9"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF44" s="9">
         <v>4690000</v>
       </c>
@@ -6854,15 +5291,11 @@
       <c r="AP44" s="1">
         <v>9.2502200000000007E-2</v>
       </c>
-      <c r="AQ44" s="11"/>
-      <c r="AR44" s="9">
-        <v>6400000</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>0.11211699999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="9"/>
+      <c r="AU44" s="9"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF45" s="9">
         <v>4650000</v>
       </c>
@@ -6888,15 +5321,11 @@
       <c r="AP45" s="1">
         <v>0.108428</v>
       </c>
-      <c r="AQ45" s="11"/>
-      <c r="AR45" s="9">
-        <v>6000000</v>
-      </c>
-      <c r="AS45" s="1">
-        <v>0.112009</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="9"/>
+      <c r="AU45" s="9"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF46" s="9">
         <v>4610000</v>
       </c>
@@ -6922,15 +5351,11 @@
       <c r="AP46" s="1">
         <v>0.112509</v>
       </c>
-      <c r="AQ46" s="11"/>
-      <c r="AR46" s="9">
-        <v>5580000</v>
-      </c>
-      <c r="AS46" s="1">
-        <v>0.11189300000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="9"/>
+      <c r="AU46" s="9"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF47" s="9">
         <v>4560000</v>
       </c>
@@ -6956,15 +5381,11 @@
       <c r="AP47" s="1">
         <v>0.116621</v>
       </c>
-      <c r="AQ47" s="11"/>
-      <c r="AR47" s="9">
-        <v>5190000</v>
-      </c>
-      <c r="AS47" s="1">
-        <v>0.11182400000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="9"/>
+      <c r="AU47" s="9"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AF48" s="9">
         <v>4470000</v>
       </c>
@@ -6990,15 +5411,11 @@
       <c r="AP48" s="1">
         <v>0.11894100000000001</v>
       </c>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="9">
-        <v>4860000</v>
-      </c>
-      <c r="AS48" s="1">
-        <v>0.111846</v>
-      </c>
-    </row>
-    <row r="49" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="9"/>
+      <c r="AU48" s="9"/>
+    </row>
+    <row r="49" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AF49" s="9">
         <v>4360000</v>
       </c>
@@ -7024,15 +5441,11 @@
       <c r="AP49" s="1">
         <v>0.120245</v>
       </c>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="9">
-        <v>4580000</v>
-      </c>
-      <c r="AS49" s="1">
-        <v>0.11187800000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="9"/>
+      <c r="AU49" s="9"/>
+    </row>
+    <row r="50" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AF50" s="9">
         <v>4179999.9999999995</v>
       </c>
@@ -7058,15 +5471,11 @@
       <c r="AP50" s="1">
         <v>0.120313</v>
       </c>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="9">
-        <v>4340000</v>
-      </c>
-      <c r="AS50" s="1">
-        <v>0.111938</v>
-      </c>
-    </row>
-    <row r="51" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="9"/>
+      <c r="AU50" s="9"/>
+    </row>
+    <row r="51" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AF51" s="9">
         <v>3910000</v>
       </c>
@@ -7092,15 +5501,11 @@
       <c r="AP51" s="1">
         <v>0.12041499999999999</v>
       </c>
-      <c r="AQ51" s="11"/>
-      <c r="AR51" s="9">
-        <v>4139999.9999999995</v>
-      </c>
-      <c r="AS51" s="1">
-        <v>0.112028</v>
-      </c>
-    </row>
-    <row r="52" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="9"/>
+      <c r="AU51" s="9"/>
+    </row>
+    <row r="52" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AF52" s="9">
         <v>3750000</v>
       </c>
@@ -7126,15 +5531,11 @@
       <c r="AP52" s="1">
         <v>0.120569</v>
       </c>
-      <c r="AQ52" s="11"/>
-      <c r="AR52" s="9">
-        <v>3880000</v>
-      </c>
-      <c r="AS52" s="1">
-        <v>0.112153</v>
-      </c>
-    </row>
-    <row r="53" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="9"/>
+      <c r="AU52" s="9"/>
+    </row>
+    <row r="53" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AF53" s="9">
         <v>3540000</v>
       </c>
@@ -7160,18 +5561,14 @@
       <c r="AP53" s="1">
         <v>0.120796</v>
       </c>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="9">
-        <v>3570000</v>
-      </c>
-      <c r="AS53" s="1">
-        <v>0.112513</v>
-      </c>
-    </row>
-    <row r="54" spans="32:45" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="9"/>
+      <c r="AU53" s="9"/>
+    </row>
+    <row r="54" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AR54" s="11"/>
     </row>
-    <row r="55" spans="32:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="32:47" x14ac:dyDescent="0.25">
       <c r="AR55" s="11"/>
     </row>
   </sheetData>
@@ -7196,24 +5593,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18365E5-FDA9-4029-B8E0-AF4B8B75F728}">
-  <dimension ref="C1:K51"/>
+  <dimension ref="C1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I2:I51"/>
+      <selection activeCell="I30" sqref="I1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J1">
+        <v>0.01</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7228,10 +5650,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="11">
-        <v>9.9699999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>9.9669999999999995E-2</v>
+        <v>9.9989999999999992E-3</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -7242,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7257,10 +5679,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="11">
-        <v>0.19900000000000001</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J3">
-        <v>9.9010000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -7271,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -7286,10 +5708,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="11">
-        <v>0.34599999999999997</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="J4">
-        <v>0.1472</v>
+        <v>2.249E-2</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -7300,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7315,10 +5737,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="11">
-        <v>0.56399999999999995</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="J5">
-        <v>0.21790000000000001</v>
+        <v>3.372E-2</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -7329,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7338,16 +5760,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="11">
-        <v>0.873</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="J6">
-        <v>0.309</v>
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -7358,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7367,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1.21</v>
+        <v>0.218</v>
       </c>
       <c r="J7">
-        <v>0.34039999999999998</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -7387,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7396,16 +5818,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1.6</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="J8">
-        <v>0.3831</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -7416,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -7425,16 +5847,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1.86</v>
+        <v>0.501</v>
       </c>
       <c r="J9">
-        <v>0.26619999999999999</v>
+        <v>0.1701</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -7445,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7454,16 +5876,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2.1800000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="J10">
-        <v>0.3221</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -7474,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -7483,16 +5905,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2.59</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J11">
-        <v>0.40260000000000001</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -7503,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -7512,16 +5934,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3.04</v>
+        <v>1.7</v>
       </c>
       <c r="J12">
-        <v>0.45550000000000002</v>
+        <v>0.56510000000000005</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -7532,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -7541,16 +5963,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>3.37</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J13">
-        <v>0.32250000000000001</v>
+        <v>0.83360000000000001</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
@@ -7561,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -7570,16 +5992,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="J14">
-        <v>0.21990000000000001</v>
+        <v>1.202</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -7590,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -7599,16 +6021,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3.73</v>
+        <v>5.35</v>
       </c>
       <c r="J15">
-        <v>0.1487</v>
+        <v>1.609</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
@@ -7619,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -7634,10 +6056,10 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>3.82</v>
+        <v>6.98</v>
       </c>
       <c r="J16">
-        <v>8.5879999999999998E-2</v>
+        <v>1.63</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
@@ -7648,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -7657,16 +6079,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>3.82</v>
+        <v>7.97</v>
       </c>
       <c r="J17">
-        <v>-3.0409999999999999E-3</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
@@ -7677,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7686,16 +6108,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>3.7</v>
+        <v>8.61</v>
       </c>
       <c r="J18">
-        <v>-0.1118</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -7706,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7721,10 +6143,10 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <v>3.55</v>
+        <v>9.17</v>
       </c>
       <c r="J19">
-        <v>-0.1585</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
@@ -7735,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -7750,10 +6172,10 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>3.4</v>
+        <v>9.74</v>
       </c>
       <c r="J20">
-        <v>-0.14349999999999999</v>
+        <v>0.56850000000000001</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -7764,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -7779,10 +6201,10 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <v>3.36</v>
+        <v>10.4</v>
       </c>
       <c r="J21">
-        <v>-4.5379999999999997E-2</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
@@ -7793,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -7802,16 +6224,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>3.34</v>
+        <v>11.1</v>
       </c>
       <c r="J22">
-        <v>-1.8890000000000001E-2</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
@@ -7822,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -7837,10 +6259,10 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <v>3.39</v>
+        <v>11.9</v>
       </c>
       <c r="J23">
-        <v>5.3999999999999999E-2</v>
+        <v>0.82189999999999996</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
@@ -7851,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -7866,10 +6288,10 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <v>3.52</v>
+        <v>12.6</v>
       </c>
       <c r="J24">
-        <v>0.12659999999999999</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
@@ -7880,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -7889,16 +6311,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>3.69</v>
+        <v>13.3</v>
       </c>
       <c r="J25">
-        <v>0.1726</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
@@ -7909,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -7924,10 +6346,10 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <v>3.89</v>
+        <v>13.9</v>
       </c>
       <c r="J26">
-        <v>0.20039999999999999</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
@@ -7938,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7953,10 +6375,10 @@
         <v>5</v>
       </c>
       <c r="I27">
-        <v>4.1100000000000003</v>
+        <v>14.9</v>
       </c>
       <c r="J27">
-        <v>0.21779999999999999</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="K27" t="s">
         <v>13</v>
@@ -7967,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -7976,16 +6398,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>4.34</v>
+        <v>15.9</v>
       </c>
       <c r="J28">
-        <v>0.22700000000000001</v>
+        <v>0.9304</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
@@ -7996,25 +6418,25 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4.57</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J29">
-        <v>0.2321</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="K29" t="s">
         <v>13</v>
@@ -8025,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -8040,621 +6462,12 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <v>4.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J30">
-        <v>0.23430000000000001</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>5.15</v>
-      </c>
-      <c r="J31">
-        <v>0.35070000000000001</v>
-      </c>
-      <c r="K31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>5.68</v>
-      </c>
-      <c r="J32">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="K32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>6.18</v>
-      </c>
-      <c r="J33">
-        <v>0.49940000000000001</v>
-      </c>
-      <c r="K33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>6.62</v>
-      </c>
-      <c r="J34">
-        <v>0.4461</v>
-      </c>
-      <c r="K34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35">
-        <v>6.98</v>
-      </c>
-      <c r="J35">
-        <v>0.35920000000000002</v>
-      </c>
-      <c r="K35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>7.02</v>
-      </c>
-      <c r="J36">
-        <v>3.848E-2</v>
-      </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-      <c r="I37">
-        <v>7.02</v>
-      </c>
-      <c r="J37">
-        <v>-4.7159999999999997E-3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>6.97</v>
-      </c>
-      <c r="J38">
-        <v>-4.4540000000000003E-2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <v>6.89</v>
-      </c>
-      <c r="J39">
-        <v>-8.5489999999999997E-2</v>
-      </c>
-      <c r="K39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40">
-        <v>6.77</v>
-      </c>
-      <c r="J40">
-        <v>-0.11269999999999999</v>
-      </c>
-      <c r="K40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>6.63</v>
-      </c>
-      <c r="J41">
-        <v>-0.14349999999999999</v>
-      </c>
-      <c r="K41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>6.4</v>
-      </c>
-      <c r="J42">
-        <v>-0.23119999999999999</v>
-      </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>6</v>
-      </c>
-      <c r="J43">
-        <v>-0.39710000000000001</v>
-      </c>
-      <c r="K43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>43</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>6</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>5.58</v>
-      </c>
-      <c r="J44">
-        <v>-0.42420000000000002</v>
-      </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>44</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>5.19</v>
-      </c>
-      <c r="J45">
-        <v>-0.38969999999999999</v>
-      </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>45</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="J46">
-        <v>-0.3251</v>
-      </c>
-      <c r="K46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
-      <c r="I47">
-        <v>4.58</v>
-      </c>
-      <c r="J47">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="K47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>47</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48">
-        <v>4.34</v>
-      </c>
-      <c r="J48">
-        <v>-0.23930000000000001</v>
-      </c>
-      <c r="K48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>48</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="J49">
-        <v>-0.20380000000000001</v>
-      </c>
-      <c r="K49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>49</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50">
-        <v>3.88</v>
-      </c>
-      <c r="J50">
-        <v>-0.25790000000000002</v>
-      </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>3.57</v>
-      </c>
-      <c r="J51">
-        <v>-0.31180000000000002</v>
-      </c>
-      <c r="K51" t="s">
         <v>13</v>
       </c>
     </row>
